--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -95,6 +95,66 @@
   </si>
   <si>
     <t xml:space="preserve">code postal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಪ್ರದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪ್ರಾಂತ್ಯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನಗರ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಲಯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೋಡ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्षेत्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्रांत</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शहर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डाक कोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> நாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பிராந்தியம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மாகாணம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> நகரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மண்டலம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குறியீடு</t>
   </si>
 </sst>
 </file>
@@ -185,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,6 +270,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,10 +295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,11 +575,263 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -103,19 +103,19 @@
     <t xml:space="preserve">ದೇಶ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಪ್ರದೇಶ</t>
+    <t xml:space="preserve">ಪ್ರದೇಶ</t>
   </si>
   <si>
     <t xml:space="preserve">ಪ್ರಾಂತ್ಯ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ನಗರ</t>
+    <t xml:space="preserve">ನಗರ</t>
   </si>
   <si>
     <t xml:space="preserve">ವಲಯ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕೋಡ್</t>
+    <t xml:space="preserve">ಕೋಡ್</t>
   </si>
   <si>
     <t xml:space="preserve">hin</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">tam</t>
   </si>
   <si>
-    <t xml:space="preserve"> நாடு</t>
+    <t xml:space="preserve">நாடு</t>
   </si>
   <si>
     <t xml:space="preserve">பிராந்தியம்</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">மாகாணம்</t>
   </si>
   <si>
-    <t xml:space="preserve"> நகரம்</t>
+    <t xml:space="preserve">நகரம்</t>
   </si>
   <si>
     <t xml:space="preserve">மண்டலம்</t>
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -1,119 +1,473 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1528D699-5617-406C-873D-596B9E8BB8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18350" windowHeight="6920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loc_hierarchy_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$19</definedName>
-  </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+  <si>
+    <t>hierarchy_level</t>
+  </si>
+  <si>
+    <t>hierarchy_level_name</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>hierarchy_level</t>
-  </si>
-  <si>
-    <t>hierarchy_level_name</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
+    <t>देश</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>राज्य</t>
+  </si>
+  <si>
+    <t>शहर</t>
+  </si>
+  <si>
+    <t>डाक कोड</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>Country</t>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>spa</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>देश</t>
-  </si>
-  <si>
-    <t>राज्य</t>
-  </si>
-  <si>
-    <t>शहर</t>
-  </si>
-  <si>
-    <t>डाक कोड</t>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>CódigoPostal</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>État</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>CodePostal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Inherit"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -123,78 +477,543 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,7 +1029,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -222,7 +1041,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -236,12 +1055,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -269,31 +1088,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -321,23 +1123,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,160 +1264,276 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="E9"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\Civ_master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736079AF-92EC-460E-9285-A1530004E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249A4B6-19A9-437D-B712-3AC420AC56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>ChefLieu</t>
   </si>
   <si>
-    <t xml:space="preserve">Departement </t>
-  </si>
-  <si>
     <t>SousPrefectures</t>
+  </si>
+  <si>
+    <t>Departement</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="b">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="b">
         <v>1</v>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6350"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="data-1729503987959" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1729503987959'!$A$1:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data-1729503987959'!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1238,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F25"/>
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1274,216 +1274,169 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" hidden="1" spans="6:6">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" hidden="1" spans="6:6">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" hidden="1" spans="6:6">
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" hidden="1" spans="6:6">
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" hidden="1" spans="6:6">
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" hidden="1" spans="6:6">
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" hidden="1" spans="6:6">
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" hidden="1" spans="6:6">
-      <c r="F11" s="1"/>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" hidden="1" spans="6:6">
-      <c r="F12" s="1"/>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" hidden="1" spans="6:6">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" hidden="1" spans="6:6">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" hidden="1" spans="6:6">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="b">
+      <c r="D13" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J19" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="eng"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J13" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
